--- a/Assets/06.Table/FoxCup.xlsx
+++ b/Assets/06.Table/FoxCup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C259DC-7C58-4E4A-B4A7-69D5E1FA4240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BF9DBE-9B68-4F2B-9C6E-E9AB023C8B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxCup" sheetId="1" r:id="rId1"/>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1092,6 +1092,226 @@
         <v>0</v>
       </c>
     </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>105000</v>
+      </c>
+      <c r="C15">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>42</v>
+      </c>
+      <c r="F15">
+        <v>35</v>
+      </c>
+      <c r="G15">
+        <v>43</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>110000</v>
+      </c>
+      <c r="C16">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>42</v>
+      </c>
+      <c r="F16">
+        <v>45</v>
+      </c>
+      <c r="G16">
+        <v>43</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>115000</v>
+      </c>
+      <c r="C17">
+        <v>39</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>42</v>
+      </c>
+      <c r="F17">
+        <v>55</v>
+      </c>
+      <c r="G17">
+        <v>43</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>120000</v>
+      </c>
+      <c r="C18">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>42</v>
+      </c>
+      <c r="F18">
+        <v>65</v>
+      </c>
+      <c r="G18">
+        <v>43</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>125000</v>
+      </c>
+      <c r="C19">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>42</v>
+      </c>
+      <c r="F19">
+        <v>80</v>
+      </c>
+      <c r="G19">
+        <v>43</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/FoxCup.xlsx
+++ b/Assets/06.Table/FoxCup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BF9DBE-9B68-4F2B-9C6E-E9AB023C8B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A2134F-C275-4C5A-8F83-0AFCCE70E403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-3300" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxCup" sheetId="1" r:id="rId1"/>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1312,6 +1312,358 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>130000</v>
+      </c>
+      <c r="C20">
+        <v>39</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>42</v>
+      </c>
+      <c r="F20">
+        <v>95</v>
+      </c>
+      <c r="G20">
+        <v>43</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>135000</v>
+      </c>
+      <c r="C21">
+        <v>39</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>42</v>
+      </c>
+      <c r="F21">
+        <v>110</v>
+      </c>
+      <c r="G21">
+        <v>43</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>140000</v>
+      </c>
+      <c r="C22">
+        <v>39</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>42</v>
+      </c>
+      <c r="F22">
+        <v>125</v>
+      </c>
+      <c r="G22">
+        <v>43</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>145000</v>
+      </c>
+      <c r="C23">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>42</v>
+      </c>
+      <c r="F23">
+        <v>140</v>
+      </c>
+      <c r="G23">
+        <v>43</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>150000</v>
+      </c>
+      <c r="C24">
+        <v>39</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>42</v>
+      </c>
+      <c r="F24">
+        <v>155</v>
+      </c>
+      <c r="G24">
+        <v>43</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>155000</v>
+      </c>
+      <c r="C25">
+        <v>39</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>42</v>
+      </c>
+      <c r="F25">
+        <v>170</v>
+      </c>
+      <c r="G25">
+        <v>43</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>160000</v>
+      </c>
+      <c r="C26">
+        <v>39</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>42</v>
+      </c>
+      <c r="F26">
+        <v>185</v>
+      </c>
+      <c r="G26">
+        <v>43</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>165000</v>
+      </c>
+      <c r="C27">
+        <v>39</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>42</v>
+      </c>
+      <c r="F27">
+        <v>200</v>
+      </c>
+      <c r="G27">
+        <v>43</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/FoxCup.xlsx
+++ b/Assets/06.Table/FoxCup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A2134F-C275-4C5A-8F83-0AFCCE70E403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F295F24D-90DA-4C94-8428-3D117F53CDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-3300" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxCup" sheetId="1" r:id="rId1"/>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1664,6 +1664,182 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>170000</v>
+      </c>
+      <c r="C28">
+        <v>39</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>42</v>
+      </c>
+      <c r="F28">
+        <v>215</v>
+      </c>
+      <c r="G28">
+        <v>43</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>175000</v>
+      </c>
+      <c r="C29">
+        <v>39</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>42</v>
+      </c>
+      <c r="F29">
+        <v>230</v>
+      </c>
+      <c r="G29">
+        <v>43</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>180000</v>
+      </c>
+      <c r="C30">
+        <v>39</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>42</v>
+      </c>
+      <c r="F30">
+        <v>245</v>
+      </c>
+      <c r="G30">
+        <v>43</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>185000</v>
+      </c>
+      <c r="C31">
+        <v>39</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>42</v>
+      </c>
+      <c r="F31">
+        <v>260</v>
+      </c>
+      <c r="G31">
+        <v>43</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/FoxCup.xlsx
+++ b/Assets/06.Table/FoxCup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F295F24D-90DA-4C94-8428-3D117F53CDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DF47FA-0109-44B9-B49F-AAAF6F47CE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1840,6 +1840,1018 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>190000</v>
+      </c>
+      <c r="C32">
+        <v>39</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>42</v>
+      </c>
+      <c r="F32">
+        <v>275</v>
+      </c>
+      <c r="G32">
+        <v>43</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>195000</v>
+      </c>
+      <c r="C33">
+        <v>39</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>42</v>
+      </c>
+      <c r="F33">
+        <v>290</v>
+      </c>
+      <c r="G33">
+        <v>43</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>200000</v>
+      </c>
+      <c r="C34">
+        <v>39</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>42</v>
+      </c>
+      <c r="F34">
+        <v>305</v>
+      </c>
+      <c r="G34">
+        <v>43</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>205000</v>
+      </c>
+      <c r="C35">
+        <v>39</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>42</v>
+      </c>
+      <c r="F35">
+        <v>320</v>
+      </c>
+      <c r="G35">
+        <v>43</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>210000</v>
+      </c>
+      <c r="C36">
+        <v>39</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>42</v>
+      </c>
+      <c r="F36">
+        <v>335</v>
+      </c>
+      <c r="G36">
+        <v>43</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>215000</v>
+      </c>
+      <c r="C37">
+        <v>39</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>42</v>
+      </c>
+      <c r="F37">
+        <v>350</v>
+      </c>
+      <c r="G37">
+        <v>43</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>220000</v>
+      </c>
+      <c r="C38">
+        <v>39</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>42</v>
+      </c>
+      <c r="F38">
+        <v>365</v>
+      </c>
+      <c r="G38">
+        <v>43</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>225000</v>
+      </c>
+      <c r="C39">
+        <v>39</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>42</v>
+      </c>
+      <c r="F39">
+        <v>380</v>
+      </c>
+      <c r="G39">
+        <v>43</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>230000</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>42</v>
+      </c>
+      <c r="F40">
+        <v>395</v>
+      </c>
+      <c r="G40">
+        <v>43</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>235000</v>
+      </c>
+      <c r="C41">
+        <v>39</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>42</v>
+      </c>
+      <c r="F41">
+        <v>410</v>
+      </c>
+      <c r="G41">
+        <v>43</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>240000</v>
+      </c>
+      <c r="C42">
+        <v>39</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>42</v>
+      </c>
+      <c r="F42">
+        <v>425</v>
+      </c>
+      <c r="G42">
+        <v>43</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>245000</v>
+      </c>
+      <c r="C43">
+        <v>39</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>42</v>
+      </c>
+      <c r="F43">
+        <v>440</v>
+      </c>
+      <c r="G43">
+        <v>43</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>250000</v>
+      </c>
+      <c r="C44">
+        <v>39</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>42</v>
+      </c>
+      <c r="F44">
+        <v>455</v>
+      </c>
+      <c r="G44">
+        <v>43</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>255000</v>
+      </c>
+      <c r="C45">
+        <v>39</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>42</v>
+      </c>
+      <c r="F45">
+        <v>470</v>
+      </c>
+      <c r="G45">
+        <v>43</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>260000</v>
+      </c>
+      <c r="C46">
+        <v>39</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>42</v>
+      </c>
+      <c r="F46">
+        <v>485</v>
+      </c>
+      <c r="G46">
+        <v>43</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>265000</v>
+      </c>
+      <c r="C47">
+        <v>39</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>42</v>
+      </c>
+      <c r="F47">
+        <v>500</v>
+      </c>
+      <c r="G47">
+        <v>43</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>270000</v>
+      </c>
+      <c r="C48">
+        <v>39</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>42</v>
+      </c>
+      <c r="F48">
+        <v>515</v>
+      </c>
+      <c r="G48">
+        <v>43</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>275000</v>
+      </c>
+      <c r="C49">
+        <v>39</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>42</v>
+      </c>
+      <c r="F49">
+        <v>530</v>
+      </c>
+      <c r="G49">
+        <v>43</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>280000</v>
+      </c>
+      <c r="C50">
+        <v>39</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>42</v>
+      </c>
+      <c r="F50">
+        <v>545</v>
+      </c>
+      <c r="G50">
+        <v>43</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>285000</v>
+      </c>
+      <c r="C51">
+        <v>39</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>42</v>
+      </c>
+      <c r="F51">
+        <v>560</v>
+      </c>
+      <c r="G51">
+        <v>43</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>290000</v>
+      </c>
+      <c r="C52">
+        <v>39</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>42</v>
+      </c>
+      <c r="F52">
+        <v>575</v>
+      </c>
+      <c r="G52">
+        <v>43</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>295000</v>
+      </c>
+      <c r="C53">
+        <v>39</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>42</v>
+      </c>
+      <c r="F53">
+        <v>590</v>
+      </c>
+      <c r="G53">
+        <v>43</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>300000</v>
+      </c>
+      <c r="C54">
+        <v>39</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>42</v>
+      </c>
+      <c r="F54">
+        <v>605</v>
+      </c>
+      <c r="G54">
+        <v>43</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/FoxCup.xlsx
+++ b/Assets/06.Table/FoxCup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DF47FA-0109-44B9-B49F-AAAF6F47CE8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A68DAD-9AB4-4B83-9D86-2D7676259187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxCup" sheetId="1" r:id="rId1"/>
@@ -462,11 +462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2852,6 +2852,886 @@
         <v>0</v>
       </c>
     </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>305000</v>
+      </c>
+      <c r="C55">
+        <v>39</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>42</v>
+      </c>
+      <c r="F55">
+        <v>620</v>
+      </c>
+      <c r="G55">
+        <v>43</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>310000</v>
+      </c>
+      <c r="C56">
+        <v>39</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>42</v>
+      </c>
+      <c r="F56">
+        <v>635</v>
+      </c>
+      <c r="G56">
+        <v>43</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>315000</v>
+      </c>
+      <c r="C57">
+        <v>39</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>42</v>
+      </c>
+      <c r="F57">
+        <v>650</v>
+      </c>
+      <c r="G57">
+        <v>43</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>320000</v>
+      </c>
+      <c r="C58">
+        <v>39</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>42</v>
+      </c>
+      <c r="F58">
+        <v>665</v>
+      </c>
+      <c r="G58">
+        <v>43</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>325000</v>
+      </c>
+      <c r="C59">
+        <v>39</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>42</v>
+      </c>
+      <c r="F59">
+        <v>680</v>
+      </c>
+      <c r="G59">
+        <v>43</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>330000</v>
+      </c>
+      <c r="C60">
+        <v>39</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>42</v>
+      </c>
+      <c r="F60">
+        <v>695</v>
+      </c>
+      <c r="G60">
+        <v>43</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>335000</v>
+      </c>
+      <c r="C61">
+        <v>39</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>42</v>
+      </c>
+      <c r="F61">
+        <v>710</v>
+      </c>
+      <c r="G61">
+        <v>43</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>340000</v>
+      </c>
+      <c r="C62">
+        <v>39</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>42</v>
+      </c>
+      <c r="F62">
+        <v>725</v>
+      </c>
+      <c r="G62">
+        <v>43</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>345000</v>
+      </c>
+      <c r="C63">
+        <v>39</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>42</v>
+      </c>
+      <c r="F63">
+        <v>740</v>
+      </c>
+      <c r="G63">
+        <v>43</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>350000</v>
+      </c>
+      <c r="C64">
+        <v>39</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>42</v>
+      </c>
+      <c r="F64">
+        <v>755</v>
+      </c>
+      <c r="G64">
+        <v>43</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>355000</v>
+      </c>
+      <c r="C65">
+        <v>39</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>42</v>
+      </c>
+      <c r="F65">
+        <v>770</v>
+      </c>
+      <c r="G65">
+        <v>43</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>360000</v>
+      </c>
+      <c r="C66">
+        <v>39</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>42</v>
+      </c>
+      <c r="F66">
+        <v>785</v>
+      </c>
+      <c r="G66">
+        <v>43</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>365000</v>
+      </c>
+      <c r="C67">
+        <v>39</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>42</v>
+      </c>
+      <c r="F67">
+        <v>800</v>
+      </c>
+      <c r="G67">
+        <v>43</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>370000</v>
+      </c>
+      <c r="C68">
+        <v>39</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>42</v>
+      </c>
+      <c r="F68">
+        <v>815</v>
+      </c>
+      <c r="G68">
+        <v>43</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>375000</v>
+      </c>
+      <c r="C69">
+        <v>39</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>42</v>
+      </c>
+      <c r="F69">
+        <v>830</v>
+      </c>
+      <c r="G69">
+        <v>43</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>380000</v>
+      </c>
+      <c r="C70">
+        <v>39</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>42</v>
+      </c>
+      <c r="F70">
+        <v>845</v>
+      </c>
+      <c r="G70">
+        <v>43</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>385000</v>
+      </c>
+      <c r="C71">
+        <v>39</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>42</v>
+      </c>
+      <c r="F71">
+        <v>860</v>
+      </c>
+      <c r="G71">
+        <v>43</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>390000</v>
+      </c>
+      <c r="C72">
+        <v>39</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>42</v>
+      </c>
+      <c r="F72">
+        <v>875</v>
+      </c>
+      <c r="G72">
+        <v>43</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>395000</v>
+      </c>
+      <c r="C73">
+        <v>39</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>42</v>
+      </c>
+      <c r="F73">
+        <v>890</v>
+      </c>
+      <c r="G73">
+        <v>43</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>400000</v>
+      </c>
+      <c r="C74">
+        <v>39</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>42</v>
+      </c>
+      <c r="F74">
+        <v>905</v>
+      </c>
+      <c r="G74">
+        <v>43</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
